--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
 </t>
   </si>
   <si>
@@ -1793,7 +1793,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>
@@ -1793,7 +1793,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>Cuando el Bundle fue hecho</t>
+    <t>Cuando el Bundle fue armado</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1130,7 +1130,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>
@@ -1810,7 +1810,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.13671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>practitionerRole</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso PractitionerRole</t>
@@ -18175,7 +18178,7 @@
         <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18190,7 +18193,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18273,7 +18276,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18385,7 +18388,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18499,7 +18502,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18615,7 +18618,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18727,7 +18730,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18841,7 +18844,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18867,13 +18870,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18953,7 +18956,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19065,7 +19068,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19177,7 +19180,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19291,7 +19294,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19407,7 +19410,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19521,7 +19524,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19635,7 +19638,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19747,7 +19750,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19859,7 +19862,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -19973,7 +19976,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20089,7 +20092,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20201,7 +20204,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20315,7 +20318,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20427,7 +20430,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20539,7 +20542,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20651,7 +20654,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20763,7 +20766,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20875,7 +20878,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -20987,7 +20990,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21101,7 +21104,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21217,7 +21220,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21329,7 +21332,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21441,7 +21444,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21555,7 +21558,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21669,7 +21672,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21783,13 +21786,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21799,7 +21802,7 @@
         <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21814,7 +21817,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -21897,7 +21900,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22009,7 +22012,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22123,7 +22126,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22239,7 +22242,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22351,7 +22354,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22465,7 +22468,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22491,13 +22494,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22560,13 +22563,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22577,7 +22580,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22689,7 +22692,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22801,7 +22804,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -22915,7 +22918,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23031,7 +23034,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23145,7 +23148,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23259,7 +23262,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23371,7 +23374,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23483,7 +23486,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23597,7 +23600,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23713,7 +23716,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23825,7 +23828,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -23939,7 +23942,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24051,7 +24054,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24163,7 +24166,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24275,7 +24278,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24387,7 +24390,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24499,7 +24502,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24611,7 +24614,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24725,7 +24728,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24841,7 +24844,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -24953,7 +24956,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25065,7 +25068,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25179,7 +25182,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25293,7 +25296,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25407,10 +25410,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25433,19 +25436,19 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -25494,7 +25497,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7983,13 +7983,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -11607,13 +11607,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -15231,13 +15231,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -18855,13 +18855,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -22479,13 +22479,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>
@@ -3684,7 +3687,7 @@
         <v>176</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>88</v>
@@ -3699,10 +3702,10 @@
         <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3741,14 +3744,14 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>175</v>
@@ -3763,7 +3766,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3780,10 +3783,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3892,10 +3895,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4006,10 +4009,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4122,10 +4125,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4151,10 +4154,10 @@
         <v>77</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4205,7 +4208,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4234,10 +4237,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4263,13 +4266,13 @@
         <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4319,7 +4322,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4348,10 +4351,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4374,13 +4377,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4431,7 +4434,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4460,10 +4463,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4489,10 +4492,10 @@
         <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4543,7 +4546,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4552,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -4572,10 +4575,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4684,10 +4687,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4798,10 +4801,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4914,10 +4917,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4943,13 +4946,13 @@
         <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4978,10 +4981,10 @@
         <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4999,7 +5002,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5028,10 +5031,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5054,16 +5057,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5113,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5171,10 +5174,10 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5225,7 +5228,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5234,7 +5237,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -5254,10 +5257,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5366,10 +5369,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5480,10 +5483,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5596,10 +5599,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5625,10 +5628,10 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5658,10 +5661,10 @@
         <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5679,7 +5682,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5708,10 +5711,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5737,13 +5740,13 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5793,7 +5796,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5822,10 +5825,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5851,10 +5854,10 @@
         <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5905,7 +5908,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5963,10 +5966,10 @@
         <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6017,7 +6020,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6046,10 +6049,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6075,10 +6078,10 @@
         <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6129,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6158,10 +6161,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6187,10 +6190,10 @@
         <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6241,7 +6244,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6270,10 +6273,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6299,10 +6302,10 @@
         <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6353,7 +6356,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6362,7 +6365,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -6382,10 +6385,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6494,10 +6497,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6608,10 +6611,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6724,10 +6727,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6753,10 +6756,10 @@
         <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6807,7 +6810,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6836,10 +6839,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6865,10 +6868,10 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6919,7 +6922,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6948,10 +6951,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6977,13 +6980,13 @@
         <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7033,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7062,10 +7065,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7091,13 +7094,13 @@
         <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7147,7 +7150,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7176,10 +7179,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,16 +7205,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7261,7 +7264,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7290,13 +7293,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -7321,10 +7324,10 @@
         <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7387,7 +7390,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7404,10 +7407,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7516,10 +7519,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7630,10 +7633,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7746,10 +7749,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7775,10 +7778,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7829,7 +7832,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7858,10 +7861,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7887,13 +7890,13 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7943,7 +7946,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7972,10 +7975,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7998,13 +8001,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8055,7 +8058,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8067,13 +8070,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8084,10 +8087,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8113,10 +8116,10 @@
         <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8167,7 +8170,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8176,7 +8179,7 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
@@ -8196,10 +8199,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8308,10 +8311,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8422,10 +8425,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8538,10 +8541,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8567,13 +8570,13 @@
         <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8602,10 +8605,10 @@
         <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8626,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8652,10 +8655,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8678,16 +8681,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8737,7 +8740,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8766,10 +8769,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8795,10 +8798,10 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8849,7 +8852,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8858,7 +8861,7 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>99</v>
@@ -8878,10 +8881,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8990,10 +8993,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9104,10 +9107,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9220,10 +9223,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9249,10 +9252,10 @@
         <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9282,10 +9285,10 @@
         <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9303,7 +9306,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9332,10 +9335,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9361,13 +9364,13 @@
         <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9417,7 +9420,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -9446,10 +9449,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9475,10 +9478,10 @@
         <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9529,7 +9532,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9558,10 +9561,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9587,10 +9590,10 @@
         <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9641,7 +9644,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9670,10 +9673,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9699,10 +9702,10 @@
         <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9753,7 +9756,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9782,10 +9785,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9811,10 +9814,10 @@
         <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9865,7 +9868,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9894,10 +9897,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9923,10 +9926,10 @@
         <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9977,7 +9980,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9986,7 +9989,7 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>99</v>
@@ -10006,10 +10009,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10118,10 +10121,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10232,10 +10235,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10348,10 +10351,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10377,10 +10380,10 @@
         <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10431,7 +10434,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10460,10 +10463,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10489,10 +10492,10 @@
         <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10543,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10572,10 +10575,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10601,13 +10604,13 @@
         <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10657,7 +10660,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10686,10 +10689,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10715,13 +10718,13 @@
         <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10771,7 +10774,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10800,10 +10803,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10826,16 +10829,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10885,7 +10888,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10914,13 +10917,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10945,10 +10948,10 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11011,7 +11014,7 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11028,10 +11031,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11140,10 +11143,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11254,10 +11257,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11370,10 +11373,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11399,10 +11402,10 @@
         <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11453,7 +11456,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11482,10 +11485,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11511,13 +11514,13 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11567,7 +11570,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11596,14 +11599,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11622,13 +11625,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11679,7 +11682,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11691,13 +11694,13 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11708,10 +11711,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11737,10 +11740,10 @@
         <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11791,7 +11794,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11800,7 +11803,7 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>99</v>
@@ -11820,10 +11823,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11932,10 +11935,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12046,10 +12049,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12162,10 +12165,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12191,13 +12194,13 @@
         <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12226,10 +12229,10 @@
         <v>127</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -12247,7 +12250,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12276,10 +12279,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12302,16 +12305,16 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12361,7 +12364,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12390,10 +12393,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12419,10 +12422,10 @@
         <v>145</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12473,7 +12476,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12482,7 +12485,7 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>99</v>
@@ -12502,10 +12505,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12614,10 +12617,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12728,10 +12731,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12844,10 +12847,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12873,10 +12876,10 @@
         <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12906,10 +12909,10 @@
         <v>127</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -12927,7 +12930,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -12956,10 +12959,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12985,13 +12988,13 @@
         <v>101</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13041,7 +13044,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>87</v>
@@ -13070,10 +13073,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13099,10 +13102,10 @@
         <v>150</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13153,7 +13156,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13182,10 +13185,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13211,10 +13214,10 @@
         <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13265,7 +13268,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13294,10 +13297,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13323,10 +13326,10 @@
         <v>150</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13377,7 +13380,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13406,10 +13409,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13435,10 +13438,10 @@
         <v>150</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13489,7 +13492,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13518,10 +13521,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13547,10 +13550,10 @@
         <v>145</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13601,7 +13604,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13610,7 +13613,7 @@
         <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>99</v>
@@ -13630,10 +13633,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13742,10 +13745,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13856,10 +13859,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13972,10 +13975,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14001,10 +14004,10 @@
         <v>150</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14055,7 +14058,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>87</v>
@@ -14084,10 +14087,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14113,10 +14116,10 @@
         <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14167,7 +14170,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14196,10 +14199,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14225,13 +14228,13 @@
         <v>150</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14281,7 +14284,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14310,10 +14313,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14339,13 +14342,13 @@
         <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14395,7 +14398,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14424,10 +14427,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14450,16 +14453,16 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14509,7 +14512,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14538,13 +14541,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14569,10 +14572,10 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14635,7 +14638,7 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>77</v>
@@ -14652,10 +14655,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14764,10 +14767,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14878,10 +14881,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14994,10 +14997,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15023,10 +15026,10 @@
         <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15077,7 +15080,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15106,10 +15109,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15135,13 +15138,13 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15191,7 +15194,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15220,10 +15223,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15246,13 +15249,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15303,7 +15306,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15315,13 +15318,13 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15332,10 +15335,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15361,10 +15364,10 @@
         <v>145</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15415,7 +15418,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15424,7 +15427,7 @@
         <v>87</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>99</v>
@@ -15444,10 +15447,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15556,10 +15559,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15670,10 +15673,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15786,10 +15789,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15815,13 +15818,13 @@
         <v>107</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -15850,10 +15853,10 @@
         <v>127</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>77</v>
@@ -15871,7 +15874,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -15900,10 +15903,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15926,16 +15929,16 @@
         <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -15985,7 +15988,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16014,10 +16017,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16043,10 +16046,10 @@
         <v>145</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16097,7 +16100,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16106,7 +16109,7 @@
         <v>87</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>99</v>
@@ -16126,10 +16129,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16238,10 +16241,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16352,10 +16355,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16468,10 +16471,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16497,10 +16500,10 @@
         <v>107</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16530,10 +16533,10 @@
         <v>127</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -16551,7 +16554,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>87</v>
@@ -16580,10 +16583,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16609,13 +16612,13 @@
         <v>101</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -16665,7 +16668,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>87</v>
@@ -16694,10 +16697,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16723,10 +16726,10 @@
         <v>150</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16777,7 +16780,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -16806,10 +16809,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16835,10 +16838,10 @@
         <v>132</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16889,7 +16892,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -16918,10 +16921,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16947,10 +16950,10 @@
         <v>150</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17001,7 +17004,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -17030,10 +17033,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17059,10 +17062,10 @@
         <v>150</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17113,7 +17116,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -17142,10 +17145,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17171,10 +17174,10 @@
         <v>145</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17225,7 +17228,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -17234,7 +17237,7 @@
         <v>87</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>99</v>
@@ -17254,10 +17257,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17366,10 +17369,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17480,10 +17483,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17596,10 +17599,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17625,10 +17628,10 @@
         <v>150</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -17679,7 +17682,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>87</v>
@@ -17708,10 +17711,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17737,10 +17740,10 @@
         <v>101</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -17791,7 +17794,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -17820,10 +17823,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17849,13 +17852,13 @@
         <v>150</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -17905,7 +17908,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -17934,10 +17937,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17963,13 +17966,13 @@
         <v>132</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18019,7 +18022,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -18048,10 +18051,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18074,16 +18077,16 @@
         <v>88</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -18133,7 +18136,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -18162,13 +18165,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18178,7 +18181,7 @@
         <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18193,10 +18196,10 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -18259,7 +18262,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>77</v>
@@ -18276,10 +18279,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18388,10 +18391,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18502,10 +18505,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -18618,10 +18621,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18647,10 +18650,10 @@
         <v>80</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -18701,7 +18704,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -18730,10 +18733,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18759,13 +18762,13 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -18815,7 +18818,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -18844,10 +18847,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18870,13 +18873,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18927,7 +18930,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -18939,13 +18942,13 @@
         <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -18956,10 +18959,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18985,10 +18988,10 @@
         <v>145</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -19039,7 +19042,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -19048,7 +19051,7 @@
         <v>87</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>99</v>
@@ -19068,10 +19071,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19180,10 +19183,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19294,10 +19297,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19410,10 +19413,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19439,13 +19442,13 @@
         <v>107</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -19474,10 +19477,10 @@
         <v>127</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>77</v>
@@ -19495,7 +19498,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -19524,10 +19527,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19550,16 +19553,16 @@
         <v>88</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -19609,7 +19612,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -19638,10 +19641,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19667,10 +19670,10 @@
         <v>145</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -19721,7 +19724,7 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -19730,7 +19733,7 @@
         <v>87</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>99</v>
@@ -19750,10 +19753,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19862,10 +19865,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19976,10 +19979,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20092,10 +20095,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20121,10 +20124,10 @@
         <v>107</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -20154,10 +20157,10 @@
         <v>127</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -20175,7 +20178,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>87</v>
@@ -20204,10 +20207,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20233,13 +20236,13 @@
         <v>101</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -20289,7 +20292,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>87</v>
@@ -20318,10 +20321,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20347,10 +20350,10 @@
         <v>150</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -20401,7 +20404,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -20430,10 +20433,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20459,10 +20462,10 @@
         <v>132</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -20513,7 +20516,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -20542,10 +20545,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20571,10 +20574,10 @@
         <v>150</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -20625,7 +20628,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -20654,10 +20657,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20683,10 +20686,10 @@
         <v>150</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -20737,7 +20740,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -20766,10 +20769,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20795,10 +20798,10 @@
         <v>145</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -20849,7 +20852,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>78</v>
@@ -20858,7 +20861,7 @@
         <v>87</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>99</v>
@@ -20878,10 +20881,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20990,10 +20993,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -21104,10 +21107,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21220,10 +21223,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21249,10 +21252,10 @@
         <v>150</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -21303,7 +21306,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>87</v>
@@ -21332,10 +21335,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -21361,10 +21364,10 @@
         <v>101</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -21415,7 +21418,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -21444,10 +21447,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21473,13 +21476,13 @@
         <v>150</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -21529,7 +21532,7 @@
         <v>77</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -21558,10 +21561,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21587,13 +21590,13 @@
         <v>132</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -21643,7 +21646,7 @@
         <v>77</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>78</v>
@@ -21672,10 +21675,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21698,16 +21701,16 @@
         <v>88</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -21757,7 +21760,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -21786,13 +21789,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21802,7 +21805,7 @@
         <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21817,10 +21820,10 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21883,7 +21886,7 @@
         <v>77</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>77</v>
@@ -21900,10 +21903,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22012,10 +22015,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22126,10 +22129,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22242,10 +22245,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -22271,10 +22274,10 @@
         <v>80</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -22325,7 +22328,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>78</v>
@@ -22354,10 +22357,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -22383,13 +22386,13 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -22439,7 +22442,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -22468,10 +22471,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -22494,13 +22497,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22551,7 +22554,7 @@
         <v>77</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>78</v>
@@ -22563,13 +22566,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22580,10 +22583,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22609,10 +22612,10 @@
         <v>145</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -22663,7 +22666,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -22672,7 +22675,7 @@
         <v>87</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>99</v>
@@ -22692,10 +22695,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22804,10 +22807,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22918,10 +22921,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23034,10 +23037,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23063,13 +23066,13 @@
         <v>107</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -23098,10 +23101,10 @@
         <v>127</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>77</v>
@@ -23119,7 +23122,7 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>78</v>
@@ -23148,10 +23151,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23174,16 +23177,16 @@
         <v>88</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -23233,7 +23236,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
@@ -23262,10 +23265,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23291,10 +23294,10 @@
         <v>145</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -23345,7 +23348,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -23354,7 +23357,7 @@
         <v>87</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>99</v>
@@ -23374,10 +23377,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -23486,10 +23489,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23600,10 +23603,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23716,10 +23719,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23745,10 +23748,10 @@
         <v>107</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -23778,10 +23781,10 @@
         <v>127</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>77</v>
@@ -23799,7 +23802,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>87</v>
@@ -23828,10 +23831,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23857,13 +23860,13 @@
         <v>101</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -23913,7 +23916,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>87</v>
@@ -23942,10 +23945,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23971,10 +23974,10 @@
         <v>150</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -24025,7 +24028,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -24054,10 +24057,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -24083,10 +24086,10 @@
         <v>132</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -24137,7 +24140,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -24166,10 +24169,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -24195,10 +24198,10 @@
         <v>150</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -24249,7 +24252,7 @@
         <v>77</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>78</v>
@@ -24278,10 +24281,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -24307,10 +24310,10 @@
         <v>150</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -24361,7 +24364,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -24390,10 +24393,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24419,10 +24422,10 @@
         <v>145</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -24473,7 +24476,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -24482,7 +24485,7 @@
         <v>87</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>99</v>
@@ -24502,10 +24505,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24614,10 +24617,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24728,10 +24731,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24844,10 +24847,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24873,10 +24876,10 @@
         <v>150</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24927,7 +24930,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>87</v>
@@ -24956,10 +24959,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24985,10 +24988,10 @@
         <v>101</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -25039,7 +25042,7 @@
         <v>77</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -25068,10 +25071,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -25097,13 +25100,13 @@
         <v>150</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -25153,7 +25156,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -25182,10 +25185,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -25211,13 +25214,13 @@
         <v>132</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -25267,7 +25270,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -25296,10 +25299,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -25322,16 +25325,16 @@
         <v>88</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -25381,7 +25384,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -25410,10 +25413,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25436,19 +25439,19 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -25497,7 +25500,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
